--- a/anomali23.xlsx
+++ b/anomali23.xlsx
@@ -651,7 +651,7 @@
         <v>BADAN KEPEGAWAIAN DAERAH - BIDANG PERENCANAAN, PENGADAAN, PENGOLAHAN DATA DAN SISTEM INFORMASI</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>FORMASI_JF_BELUMDIANGKAT, UNOR_NONAKTIF</v>
       </c>
     </row>
     <row r="19">

--- a/anomali23.xlsx
+++ b/anomali23.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,13 +418,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> ACHMAD DIRAN S.Sos.I, M.Pd.I</v>
+        <v xml:space="preserve"> SUCI RAHAYU S.Sos.,M.M.</v>
       </c>
       <c r="B2" t="str">
-        <v>197906012023211003</v>
+        <v>196801011989102003</v>
       </c>
       <c r="C2" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -432,13 +432,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Dra. HESTI PALUPI M.Pd.</v>
+        <v xml:space="preserve"> ABDUL ROFIK S.E.</v>
       </c>
       <c r="B3" t="str">
-        <v>196607011998022001</v>
+        <v>196801011999011001</v>
       </c>
       <c r="C3" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -446,13 +446,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> AGUSTA YUDISTIRA S.Pd., Gr.</v>
+        <v>Dr. ARIE CAHYONO S.STP.,M.Si.</v>
       </c>
       <c r="B4" t="str">
-        <v>198908012022211009</v>
+        <v>197802011996121001</v>
       </c>
       <c r="C4" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D4" t="str">
         <v/>
@@ -460,55 +460,55 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Dra. MUDJIATI M.Pd.</v>
+        <v>Dr. SUPRIANTO S.H., M.H.</v>
       </c>
       <c r="B5" t="str">
-        <v>196506022008012003</v>
+        <v>195905011980031010</v>
       </c>
       <c r="C5" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D5" t="str">
-        <v>UNOR_NONAKTIF</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> SHOLIHATIN S.Pd., M.Si.</v>
+        <v xml:space="preserve"> ZAINAL MUTTAQIN S.Kom.,M.I.Kom.,CPR.</v>
       </c>
       <c r="B6" t="str">
-        <v>196701041988112001</v>
+        <v>198606012014031001</v>
       </c>
       <c r="C6" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT</v>
       </c>
       <c r="D6" t="str">
-        <v>UNOR_NONAKTIF</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> BUDI SANTOSO S. Pd.</v>
+        <v xml:space="preserve"> KASMADI </v>
       </c>
       <c r="B7" t="str">
-        <v>196510041986031018</v>
+        <v>197008011996021002</v>
       </c>
       <c r="C7" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>UNOR_NONAKTIF</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Drs. SRIYAMIL MA,</v>
+        <v xml:space="preserve"> FERRY AGUS PRADANA S.E.</v>
       </c>
       <c r="B8" t="str">
-        <v>196904052023211002</v>
+        <v>198402022010011012</v>
       </c>
       <c r="C8" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
       </c>
       <c r="D8" t="str">
         <v/>
@@ -516,13 +516,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> KOEKOEH SOEBAGIJO S. Pd. </v>
+        <v xml:space="preserve"> TITIK SUMARNI S.Sos.</v>
       </c>
       <c r="B9" t="str">
-        <v>197110082005011006</v>
+        <v>197103021994032002</v>
       </c>
       <c r="C9" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
       </c>
       <c r="D9" t="str">
         <v>UNOR_NONAKTIF</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve"> DWI WAHYU BUDIONO S.Sos</v>
+        <v xml:space="preserve"> WIDIASTUTI S.Sos.</v>
       </c>
       <c r="B10" t="str">
-        <v>198009092014121003</v>
+        <v>197706022009012003</v>
       </c>
       <c r="C10" t="str">
-        <v xml:space="preserve">DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - SUB BAGIAN TATA USAHA </v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -544,13 +544,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> MOHAMAD PAI S.Pd.</v>
+        <v xml:space="preserve"> DJANARI </v>
       </c>
       <c r="B11" t="str">
-        <v>196705102007011028</v>
+        <v>196801032007011021</v>
       </c>
       <c r="C11" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
       </c>
       <c r="D11" t="str">
         <v/>
@@ -558,13 +558,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> AHMAD YASIN S.Pd., Gr.</v>
+        <v xml:space="preserve"> YANTO </v>
       </c>
       <c r="B12" t="str">
-        <v>199108102022211016</v>
+        <v>196903032010011003</v>
       </c>
       <c r="C12" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
       </c>
       <c r="D12" t="str">
         <v/>
@@ -572,27 +572,27 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve"> FITRIA INDAHWATI S. Pd. </v>
+        <v xml:space="preserve"> ERNA ROSIDIN S.Sos.</v>
       </c>
       <c r="B13" t="str">
-        <v>198307112006042015</v>
+        <v>197203032009011003</v>
       </c>
       <c r="C13" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
       </c>
       <c r="D13" t="str">
-        <v>UNOR_NONAKTIF</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve"> ANIE SETIAWATI S.Pd.</v>
+        <v>Dr. SAIFUL RACHMAN M.M., M.Pd.</v>
       </c>
       <c r="B14" t="str">
-        <v>197807122022212011</v>
+        <v>195905031985031018</v>
       </c>
       <c r="C14" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -600,13 +600,13 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve"> DEWI RINTAN SARI S.Pd.</v>
+        <v xml:space="preserve"> SRI TRISNAWATI SUSANTI S.H.,M.M.</v>
       </c>
       <c r="B15" t="str">
-        <v>199711132022212010</v>
+        <v>197207031992032007</v>
       </c>
       <c r="C15" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
       </c>
       <c r="D15" t="str">
         <v/>
@@ -614,41 +614,41 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v xml:space="preserve">Drs. SONNYK SUMARSONO </v>
+        <v xml:space="preserve"> WIWIN WINDRIATMOKO S.Kom.</v>
       </c>
       <c r="B16" t="str">
-        <v>196404142007011011</v>
+        <v>197309032009011003</v>
       </c>
       <c r="C16" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D16" t="str">
-        <v>UNOR_NONAKTIF</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve"> ANDRI SUKRISTYONO S.Psi.,M.Si.</v>
+        <v xml:space="preserve"> RIRIEN SULISTIOWATI S.Pd.</v>
       </c>
       <c r="B17" t="str">
-        <v>197704142011011008</v>
+        <v>197910032007012014</v>
       </c>
       <c r="C17" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D17" t="str">
-        <v>UNOR_NONAKTIF</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve"> FATIMATUZAHRO S.Pd., Gr.</v>
+        <v xml:space="preserve"> SULISANA S.Sos.</v>
       </c>
       <c r="B18" t="str">
-        <v>199204142023212038</v>
+        <v>197211031999012001</v>
       </c>
       <c r="C18" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
       </c>
       <c r="D18" t="str">
         <v/>
@@ -656,13 +656,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v xml:space="preserve"> IRAWATI S.Pd</v>
+        <v xml:space="preserve"> FERNANDA SHEILA SHAFFIRA S.M.</v>
       </c>
       <c r="B19" t="str">
-        <v>197905142014122003</v>
+        <v>199612032022042001</v>
       </c>
       <c r="C19" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
       </c>
       <c r="D19" t="str">
         <v/>
@@ -670,13 +670,13 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Drs. POERBOWASISO M.Pd.</v>
+        <v>Drs. H. PASO DEKA DEWANTO MS.i</v>
       </c>
       <c r="B20" t="str">
-        <v>196404151990031008</v>
+        <v>197202041991011002</v>
       </c>
       <c r="C20" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D20" t="str">
         <v>UNOR_NONAKTIF</v>
@@ -684,27 +684,27 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve"> TOETIK MOELYATI S.Pd.</v>
+        <v xml:space="preserve"> WASIS TRIATMODJO S.E.</v>
       </c>
       <c r="B21" t="str">
-        <v>196407171991032007</v>
+        <v>197702042010011001</v>
       </c>
       <c r="C21" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
       </c>
       <c r="D21" t="str">
-        <v>UNOR_NONAKTIF</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve"> EDY KUSNIANTO S.Pd.</v>
+        <v xml:space="preserve"> AGUS SUPRIANTO SH</v>
       </c>
       <c r="B22" t="str">
-        <v>196509171988111002</v>
+        <v>196804042007011039</v>
       </c>
       <c r="C22" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
       </c>
       <c r="D22" t="str">
         <v/>
@@ -712,13 +712,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve"> FOFI FANA S.Pd.</v>
+        <v xml:space="preserve"> EDY SANTOSO </v>
       </c>
       <c r="B23" t="str">
-        <v>199808182022212004</v>
+        <v>196606041989031014</v>
       </c>
       <c r="C23" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
       </c>
       <c r="D23" t="str">
         <v/>
@@ -726,13 +726,13 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve"> SITI A'ISYAH S.Pd</v>
+        <v xml:space="preserve"> SUDARTO SUWARTO SE,MM</v>
       </c>
       <c r="B24" t="str">
-        <v>199010182022212020</v>
+        <v>196602051992031007</v>
       </c>
       <c r="C24" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
       </c>
       <c r="D24" t="str">
         <v/>
@@ -740,13 +740,13 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v xml:space="preserve"> CHUSNAWIRYA KURNIA DEVI M. Sosio</v>
+        <v xml:space="preserve"> HENDRAWAN DRIASMORO A.Md.</v>
       </c>
       <c r="B25" t="str">
-        <v>198006192009022001</v>
+        <v>197302052006041011</v>
       </c>
       <c r="C25" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
       </c>
       <c r="D25" t="str">
         <v/>
@@ -754,27 +754,27 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v xml:space="preserve"> HANIN ARLISA S.Pd.</v>
+        <v xml:space="preserve"> ENIK CAHYANI KUSTIANAH S.Sos.,M.M.</v>
       </c>
       <c r="B26" t="str">
-        <v>199609192020122025</v>
+        <v>197003051998032004</v>
       </c>
       <c r="C26" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
       </c>
       <c r="D26" t="str">
-        <v>FORMASI_JF_BELUMDIANGKAT</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve"> KARDIYONO M.Pd.</v>
+        <v>Dra DYAH PURNAMAWATI M.Pd</v>
       </c>
       <c r="B27" t="str">
-        <v>197702202008011005</v>
+        <v>196605051993022002</v>
       </c>
       <c r="C27" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D27" t="str">
         <v/>
@@ -782,13 +782,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v xml:space="preserve"> SULISTYOWATI S.Pd</v>
+        <v>Dr. MARGO YUWONO S.Si., M.Si</v>
       </c>
       <c r="B28" t="str">
-        <v>197506202014122001</v>
+        <v>196306051987021001</v>
       </c>
       <c r="C28" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D28" t="str">
         <v/>
@@ -796,13 +796,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v xml:space="preserve">Dra. AGUSTINA HAPPYATI </v>
+        <v xml:space="preserve"> SUYITNO SH</v>
       </c>
       <c r="B29" t="str">
-        <v>196608202008012007</v>
+        <v>196607051996031006</v>
       </c>
       <c r="C29" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
       </c>
       <c r="D29" t="str">
         <v/>
@@ -810,13 +810,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v xml:space="preserve"> SUTARTIK S.Pd</v>
+        <v xml:space="preserve"> SUSONGKO </v>
       </c>
       <c r="B30" t="str">
-        <v>197309202014122001</v>
+        <v>197207052008011013</v>
       </c>
       <c r="C30" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
       </c>
       <c r="D30" t="str">
         <v/>
@@ -824,13 +824,13 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v xml:space="preserve"> AMINA HATI BAENE S.Pd</v>
+        <v xml:space="preserve"> RIFKI HERI ABRIANTO S.STP</v>
       </c>
       <c r="B31" t="str">
-        <v>199109202023212030</v>
+        <v>199710052020081001</v>
       </c>
       <c r="C31" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT</v>
       </c>
       <c r="D31" t="str">
         <v/>
@@ -838,13 +838,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve"> MUHAMMAD ROYHAN S.Pd</v>
+        <v xml:space="preserve"> CITRA AYU ROSITA S.H.</v>
       </c>
       <c r="B32" t="str">
-        <v>199505232023211013</v>
+        <v>198902062019032012</v>
       </c>
       <c r="C32" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -852,13 +852,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve"> NDARU KURNIAWAN S.Pd</v>
+        <v xml:space="preserve"> PUJO SUGIARTO , S.T., S.E.</v>
       </c>
       <c r="B33" t="str">
-        <v>199009232023211013</v>
+        <v>197406062010011002</v>
       </c>
       <c r="C33" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
       </c>
       <c r="D33" t="str">
         <v/>
@@ -866,13 +866,13 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve"> NURANI M.Pd.</v>
+        <v xml:space="preserve"> RR NAWANG ARDIANI S.H.,M.Si.</v>
       </c>
       <c r="B34" t="str">
-        <v>196711242007012014</v>
+        <v>196508061992032013</v>
       </c>
       <c r="C34" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D34" t="str">
         <v/>
@@ -880,13 +880,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve">Dra. LILIS WIDARINI </v>
+        <v xml:space="preserve"> SUSIANAH SATIANI  S.Psi.,M.Psi.</v>
       </c>
       <c r="B35" t="str">
-        <v>196801252008012009</v>
+        <v>196910061997032005</v>
       </c>
       <c r="C35" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - UPT SERTIFIKASI KOMPETENSI SUMBER DAYA MANUSIA</v>
       </c>
       <c r="D35" t="str">
         <v/>
@@ -894,41 +894,41 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve">Drs. KASELIM </v>
+        <v>Ir. ISMAIL M.M.</v>
       </c>
       <c r="B36" t="str">
-        <v>196311262014121001</v>
+        <v>196112061989031005</v>
       </c>
       <c r="C36" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D36" t="str">
-        <v>BUP masih Aktif</v>
+        <v>BUP masih Aktif, UNOR_NONAKTIF</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve"> MUHAMMAD FADLOLI S.Pd.</v>
+        <v>Dr. IMAM TRISNO EDY M.M.</v>
       </c>
       <c r="B37" t="str">
-        <v>196810281998021001</v>
+        <v>195904071985031015</v>
       </c>
       <c r="C37" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
       </c>
       <c r="D37" t="str">
-        <v>UNOR_NONAKTIF</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve"> HUSNUL MUCHTARIJAH S.Pd.</v>
+        <v xml:space="preserve"> HERIONO </v>
       </c>
       <c r="B38" t="str">
-        <v>196403301985122001</v>
+        <v>197304071997031002</v>
       </c>
       <c r="C38" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
       </c>
       <c r="D38" t="str">
         <v/>
@@ -936,21 +936,1743 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve"> TJATUR ROSE DIANY S.Pd.</v>
+        <v xml:space="preserve"> RIZKY AYU SAVITRI S.E., M.A.</v>
       </c>
       <c r="B39" t="str">
-        <v>196809302000122001</v>
+        <v>198604072011012012</v>
       </c>
       <c r="C39" t="str">
-        <v>DINAS PENDIDIKAN - CABANG DINAS PENDIDIKAN WILAYAH SIDOARJO - UPT SATUAN PENDIDIKAN - KOTA SURABAYA - SMAN 9 SURABAYA - FUNGSIONAL</v>
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
       </c>
       <c r="D39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v xml:space="preserve"> IMAM SUDRADJAT S.H.</v>
+      </c>
+      <c r="B40" t="str">
+        <v>197007071998031009</v>
+      </c>
+      <c r="C40" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v xml:space="preserve"> BUKORI A.Md.</v>
+      </c>
+      <c r="B41" t="str">
+        <v>197107071996021001</v>
+      </c>
+      <c r="C41" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Drs AKHMAD FARID GAFTAN M.Si.</v>
+      </c>
+      <c r="B42" t="str">
+        <v>196910071990021002</v>
+      </c>
+      <c r="C42" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v xml:space="preserve"> NURUL HAYATI S.STP., M.Sos.</v>
+      </c>
+      <c r="B43" t="str">
+        <v>198212072001122001</v>
+      </c>
+      <c r="C43" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v xml:space="preserve"> FITRI HARIYANTI S.Sos.,M.M.</v>
+      </c>
+      <c r="B44" t="str">
+        <v>196701081987012001</v>
+      </c>
+      <c r="C44" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Drs. ANANG TRIONO M.M.</v>
+      </c>
+      <c r="B45" t="str">
+        <v>195903081985031019</v>
+      </c>
+      <c r="C45" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D45" t="str">
         <v>UNOR_NONAKTIF</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v xml:space="preserve"> JOKO WIANTAH </v>
+      </c>
+      <c r="B46" t="str">
+        <v>196605082010011001</v>
+      </c>
+      <c r="C46" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v xml:space="preserve"> PRATIKNYO HARI WAHYONO S.Sos.</v>
+      </c>
+      <c r="B47" t="str">
+        <v>196706081992111002</v>
+      </c>
+      <c r="C47" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v xml:space="preserve"> AGUS MULYANI </v>
+      </c>
+      <c r="B48" t="str">
+        <v>196608082008011003</v>
+      </c>
+      <c r="C48" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Dra.Ec. LILIK JUMIATI M.Si.</v>
+      </c>
+      <c r="B49" t="str">
+        <v>196709081993092001</v>
+      </c>
+      <c r="C49" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v xml:space="preserve"> KUSWANDI </v>
+      </c>
+      <c r="B50" t="str">
+        <v>197309082008011003</v>
+      </c>
+      <c r="C50" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Drs SUMARBOWO M.M., M.Si</v>
+      </c>
+      <c r="B51" t="str">
+        <v>195811081983031011</v>
+      </c>
+      <c r="C51" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Dr. Ir. GENTUR PRIHANTONO SANDJOYO PUTRO M.T</v>
+      </c>
+      <c r="B52" t="str">
+        <v>195901091987121002</v>
+      </c>
+      <c r="C52" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v xml:space="preserve"> ANALEPTICA BRILLIANT N.A.S S.H.,M.Si.</v>
+      </c>
+      <c r="B53" t="str">
+        <v>197801092010012003</v>
+      </c>
+      <c r="C53" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Dr. HARY WAHYUDI S.H.,M.Si.</v>
+      </c>
+      <c r="B54" t="str">
+        <v>196809091992021001</v>
+      </c>
+      <c r="C54" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Dr.H. MUDJIB AFAN. Msc.,MARS.</v>
+      </c>
+      <c r="B55" t="str">
+        <v>195810091980021001</v>
+      </c>
+      <c r="C55" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Dr.Ir.H. DJONY HARIJANTO M.DM</v>
+      </c>
+      <c r="B56" t="str">
+        <v>196001101985041006</v>
+      </c>
+      <c r="C56" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D56" t="str">
+        <v>BUP masih Aktif, UNOR_NONAKTIF</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v xml:space="preserve"> RANDY FEBRIANO RUHYANA S.T., M.MT.</v>
+      </c>
+      <c r="B57" t="str">
+        <v>198702102022041001</v>
+      </c>
+      <c r="C57" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v xml:space="preserve"> SONY SUSANTO </v>
+      </c>
+      <c r="B58" t="str">
+        <v>197803102010011003</v>
+      </c>
+      <c r="C58" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v xml:space="preserve"> AKHMALUS SOLIKHIN S.H.,M.M.</v>
+      </c>
+      <c r="B59" t="str">
+        <v>196904101993021001</v>
+      </c>
+      <c r="C59" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v xml:space="preserve"> M. YANDI SYAHRIAR S.E., M.M.</v>
+      </c>
+      <c r="B60" t="str">
+        <v>199204102022041001</v>
+      </c>
+      <c r="C60" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v xml:space="preserve"> AGUS WAHYUDI S.H., M.Si.</v>
+      </c>
+      <c r="B61" t="str">
+        <v>196008101985091003</v>
+      </c>
+      <c r="C61" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v xml:space="preserve"> MUCHAMAD TAUFIK S.H.,M.AP.</v>
+      </c>
+      <c r="B62" t="str">
+        <v>196010101986031029</v>
+      </c>
+      <c r="C62" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v xml:space="preserve"> EKO SULAKSONO </v>
+      </c>
+      <c r="B63" t="str">
+        <v>197110101993111001</v>
+      </c>
+      <c r="C63" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v xml:space="preserve"> BAMBANG JUMADI S.Sos</v>
+      </c>
+      <c r="B64" t="str">
+        <v>197511102010011002</v>
+      </c>
+      <c r="C64" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v xml:space="preserve"> NOVITA ERNAWATI A.Md.,S.E.</v>
+      </c>
+      <c r="B65" t="str">
+        <v>197811102010012002</v>
+      </c>
+      <c r="C65" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v xml:space="preserve"> MISKUN </v>
+      </c>
+      <c r="B66" t="str">
+        <v>196812102009011002</v>
+      </c>
+      <c r="C66" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v xml:space="preserve"> DADANG WINARTO S.I.P.</v>
+      </c>
+      <c r="B67" t="str">
+        <v>197201112009011002</v>
+      </c>
+      <c r="C67" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve"> BACHTIAR NUR IRAWAN S.E.,MBA</v>
+      </c>
+      <c r="B68" t="str">
+        <v>198501112019031004</v>
+      </c>
+      <c r="C68" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v xml:space="preserve"> PURWO ARI SUHARYANTO S.E.</v>
+      </c>
+      <c r="B69" t="str">
+        <v>197502112009011004</v>
+      </c>
+      <c r="C69" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v xml:space="preserve"> HERUJANTO S.Sos.</v>
+      </c>
+      <c r="B70" t="str">
+        <v>197304112010011002</v>
+      </c>
+      <c r="C70" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v xml:space="preserve"> BUNYAMIN SABARDI S.Sos</v>
+      </c>
+      <c r="B71" t="str">
+        <v>196605112007011013</v>
+      </c>
+      <c r="C71" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
+      </c>
+      <c r="D71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v xml:space="preserve"> ACHIYAR ACHMADI A.Md.</v>
+      </c>
+      <c r="B72" t="str">
+        <v>198106112023211009</v>
+      </c>
+      <c r="C72" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v xml:space="preserve"> TIARA DINAR AULIA S.I.Kom, M.M</v>
+      </c>
+      <c r="B73" t="str">
+        <v>199012112019032018</v>
+      </c>
+      <c r="C73" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v xml:space="preserve"> ARIF CHOIRUL EFFENDI S.Kes</v>
+      </c>
+      <c r="B74" t="str">
+        <v>199601122023211014</v>
+      </c>
+      <c r="C74" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA</v>
+      </c>
+      <c r="D74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v xml:space="preserve"> ANITA RACHMAWATI S.E.</v>
+      </c>
+      <c r="B75" t="str">
+        <v>197703122009012003</v>
+      </c>
+      <c r="C75" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v xml:space="preserve"> NINOK KUSUMA NURHAYANI S.E.</v>
+      </c>
+      <c r="B76" t="str">
+        <v>197712122010012016</v>
+      </c>
+      <c r="C76" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v xml:space="preserve"> ANTONIUS KUSTORO YUNI DEWANTO SE.,MA.,Ak</v>
+      </c>
+      <c r="B77" t="str">
+        <v>196506131987031001</v>
+      </c>
+      <c r="C77" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v xml:space="preserve"> ITUK RUDIANSYAH S.Sos.</v>
+      </c>
+      <c r="B78" t="str">
+        <v>197308132010011002</v>
+      </c>
+      <c r="C78" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v xml:space="preserve"> SISWANTO S.Sos.</v>
+      </c>
+      <c r="B79" t="str">
+        <v>197101142008011010</v>
+      </c>
+      <c r="C79" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
+      </c>
+      <c r="D79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v xml:space="preserve"> REZA PRAKOSO RAMADHAN S.T.,M.Sc</v>
+      </c>
+      <c r="B80" t="str">
+        <v>199303142019031011</v>
+      </c>
+      <c r="C80" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v xml:space="preserve"> DWI INDAH APRIJANI SE, M.Ak</v>
+      </c>
+      <c r="B81" t="str">
+        <v>197004141989032001</v>
+      </c>
+      <c r="C81" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v xml:space="preserve"> SITTI SUNARSIH S.Pd., M.Pd.</v>
+      </c>
+      <c r="B82" t="str">
+        <v>196806141988032002</v>
+      </c>
+      <c r="C82" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v xml:space="preserve"> LIA PRATIWI OKTAVIA </v>
+      </c>
+      <c r="B83" t="str">
+        <v>197710142010012001</v>
+      </c>
+      <c r="C83" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v xml:space="preserve"> MAKHFUDZ S.H.,M.Si.</v>
+      </c>
+      <c r="B84" t="str">
+        <v>196201151989031010</v>
+      </c>
+      <c r="C84" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Dr. ESTI SRI RAHAYU S.P.,M.P.</v>
+      </c>
+      <c r="B85" t="str">
+        <v>197201151999032008</v>
+      </c>
+      <c r="C85" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v xml:space="preserve"> WAHYU PURNAMA RAMADHANY S.STP</v>
+      </c>
+      <c r="B86" t="str">
+        <v>199801152020082001</v>
+      </c>
+      <c r="C86" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Dra. TRI RETNO WIDIYANTI M.Pd</v>
+      </c>
+      <c r="B87" t="str">
+        <v>196004151985022003</v>
+      </c>
+      <c r="C87" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v xml:space="preserve"> R. PURBOYO BROJONEGORO </v>
+      </c>
+      <c r="B88" t="str">
+        <v>197504152007011033</v>
+      </c>
+      <c r="C88" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
+      </c>
+      <c r="D88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Drs. ARIF ROFIQ M.Si</v>
+      </c>
+      <c r="B89" t="str">
+        <v>196406151985031011</v>
+      </c>
+      <c r="C89" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v xml:space="preserve"> SURYADI </v>
+      </c>
+      <c r="B90" t="str">
+        <v>196806152007011037</v>
+      </c>
+      <c r="C90" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Dr.,Drs.  ZAENAL MUTAKIN M.Si.</v>
+      </c>
+      <c r="B91" t="str">
+        <v>196408151998031006</v>
+      </c>
+      <c r="C91" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v xml:space="preserve"> HENNY RACHMAWATI </v>
+      </c>
+      <c r="B92" t="str">
+        <v>197909152010012003</v>
+      </c>
+      <c r="C92" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v xml:space="preserve"> BUDIANTO S.H.</v>
+      </c>
+      <c r="B93" t="str">
+        <v>196612151998031006</v>
+      </c>
+      <c r="C93" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v xml:space="preserve"> HERNAWATI S.E.</v>
+      </c>
+      <c r="B94" t="str">
+        <v>197402162008012003</v>
+      </c>
+      <c r="C94" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v xml:space="preserve"> IZMA FARDIANA AFFANTI SE, M.IP.</v>
+      </c>
+      <c r="B95" t="str">
+        <v>197503162006042019</v>
+      </c>
+      <c r="C95" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v xml:space="preserve"> MAHARISKA DEVI PRILLIAFAJARWATI S.T., M.PSDM.</v>
+      </c>
+      <c r="B96" t="str">
+        <v>198804162020122015</v>
+      </c>
+      <c r="C96" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D96" t="str">
+        <v>FORMASI_JF_BELUMDIANGKAT</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Dra. SRI RAHAYUNINGSIH M.Si.,M.Psi.</v>
+      </c>
+      <c r="B97" t="str">
+        <v>196910161997032004</v>
+      </c>
+      <c r="C97" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
+      </c>
+      <c r="D97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Ir RACHMAD HARI PIRNGADI MM</v>
+      </c>
+      <c r="B98" t="str">
+        <v>196905171995031002</v>
+      </c>
+      <c r="C98" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v xml:space="preserve"> FRIDA IKA WIK HARTANTI S.Psi</v>
+      </c>
+      <c r="B99" t="str">
+        <v>198708172011012012</v>
+      </c>
+      <c r="C99" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D99" t="str">
+        <v>UNOR_NONAKTIF</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v xml:space="preserve"> SOESETIO IRAWAN </v>
+      </c>
+      <c r="B100" t="str">
+        <v>197210172009011002</v>
+      </c>
+      <c r="C100" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v xml:space="preserve"> GALIH MAHARDIKA S. E., M. M. </v>
+      </c>
+      <c r="B101" t="str">
+        <v>198612172019031003</v>
+      </c>
+      <c r="C101" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v xml:space="preserve"> MOHAMAD JUFRI SE</v>
+      </c>
+      <c r="B102" t="str">
+        <v>197001182008011008</v>
+      </c>
+      <c r="C102" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
+      </c>
+      <c r="D102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v xml:space="preserve"> AHMAD FALIH HADIKA S.Fil, MKP</v>
+      </c>
+      <c r="B103" t="str">
+        <v>198601182011011004</v>
+      </c>
+      <c r="C103" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v xml:space="preserve"> SUPRAPTO S.H.,M.M.</v>
+      </c>
+      <c r="B104" t="str">
+        <v>196703181992021001</v>
+      </c>
+      <c r="C104" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
+      </c>
+      <c r="D104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v xml:space="preserve"> EMI HARTATIK S.Sos.</v>
+      </c>
+      <c r="B105" t="str">
+        <v>196903181996022001</v>
+      </c>
+      <c r="C105" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
+      </c>
+      <c r="D105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v xml:space="preserve"> LIMAN NURSALIM S.E.</v>
+      </c>
+      <c r="B106" t="str">
+        <v>197705182009011004</v>
+      </c>
+      <c r="C106" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Drs. Ec. JONATHAN JUDYANTO M.MT.</v>
+      </c>
+      <c r="B107" t="str">
+        <v>196102191989031007</v>
+      </c>
+      <c r="C107" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v xml:space="preserve"> AL ROUF RACHMAN S.Kom.</v>
+      </c>
+      <c r="B108" t="str">
+        <v>199102192019031009</v>
+      </c>
+      <c r="C108" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v xml:space="preserve"> SUPRIYADI </v>
+      </c>
+      <c r="B109" t="str">
+        <v>196703191994031004</v>
+      </c>
+      <c r="C109" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v xml:space="preserve"> SWESTI ANDINI S.Psi.</v>
+      </c>
+      <c r="B110" t="str">
+        <v>197903192010012019</v>
+      </c>
+      <c r="C110" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - UPT SERTIFIKASI KOMPETENSI SUMBER DAYA MANUSIA - SEKSI PERENCANAAN DAN PENGEMBANGAN SERTIFIKASI KOMPETENSI SDM</v>
+      </c>
+      <c r="D110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v xml:space="preserve"> MOHAMMAD RIFKI MUZAQQI A.Md.</v>
+      </c>
+      <c r="B111" t="str">
+        <v>199205192023211017</v>
+      </c>
+      <c r="C111" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v xml:space="preserve"> DWI NUR FITRIANA S.E.</v>
+      </c>
+      <c r="B112" t="str">
+        <v>198910192020122013</v>
+      </c>
+      <c r="C112" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
+      </c>
+      <c r="D112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v xml:space="preserve"> DEWA KETUT ALIT S.H., M.Si.</v>
+      </c>
+      <c r="B113" t="str">
+        <v>196202201991031001</v>
+      </c>
+      <c r="C113" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v xml:space="preserve"> MASHUDIN S.Sos.</v>
+      </c>
+      <c r="B114" t="str">
+        <v>197204201996021001</v>
+      </c>
+      <c r="C114" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
+      </c>
+      <c r="D114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v xml:space="preserve"> SRI KARTINI S.P.,M.Si.</v>
+      </c>
+      <c r="B115" t="str">
+        <v>196808201998032001</v>
+      </c>
+      <c r="C115" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
+      </c>
+      <c r="D115" t="str">
+        <v>UNOR_NONAKTIF</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v xml:space="preserve"> I PUTU YASA </v>
+      </c>
+      <c r="B116" t="str">
+        <v>197712202009011006</v>
+      </c>
+      <c r="C116" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v xml:space="preserve"> ALFIJAH S.E.</v>
+      </c>
+      <c r="B117" t="str">
+        <v>196702211986032001</v>
+      </c>
+      <c r="C117" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
+      </c>
+      <c r="D117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v xml:space="preserve"> SUMINGAN S.E.</v>
+      </c>
+      <c r="B118" t="str">
+        <v>196607211998031005</v>
+      </c>
+      <c r="C118" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
+      </c>
+      <c r="D118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v xml:space="preserve"> JULI WINARTO Ak.,M.M.,CA.</v>
+      </c>
+      <c r="B119" t="str">
+        <v>196607211987031002</v>
+      </c>
+      <c r="C119" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Dr. SUKESI Apt. MARS.</v>
+      </c>
+      <c r="B120" t="str">
+        <v>195910211989032002</v>
+      </c>
+      <c r="C120" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v xml:space="preserve"> ANDIEK ANTONO S.E.</v>
+      </c>
+      <c r="B121" t="str">
+        <v>196802221997031007</v>
+      </c>
+      <c r="C121" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v xml:space="preserve"> KHUSWAH ZAINUDIN A.Md</v>
+      </c>
+      <c r="B122" t="str">
+        <v>198009222011011002</v>
+      </c>
+      <c r="C122" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
+      </c>
+      <c r="D122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Dr. Ir. I MADE SUKARTHA CES.</v>
+      </c>
+      <c r="B123" t="str">
+        <v>195901231989031004</v>
+      </c>
+      <c r="C123" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v xml:space="preserve"> BAYU NUGRAHA AGUNG S.STP., M.A.P</v>
+      </c>
+      <c r="B124" t="str">
+        <v>199403232016091003</v>
+      </c>
+      <c r="C124" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v xml:space="preserve"> MOCHAMAD SULUH S.H.,M.Si.</v>
+      </c>
+      <c r="B125" t="str">
+        <v>196707241999011001</v>
+      </c>
+      <c r="C125" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D125" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v xml:space="preserve"> ISTIYONO S.H.</v>
+      </c>
+      <c r="B126" t="str">
+        <v>196809241997031003</v>
+      </c>
+      <c r="C126" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL</v>
+      </c>
+      <c r="D126" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Ir. BIASWORO ADISUYANTO AKA  M.M.</v>
+      </c>
+      <c r="B127" t="str">
+        <v>196406251997031002</v>
+      </c>
+      <c r="C127" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v xml:space="preserve"> M. AGUS ROHMAN </v>
+      </c>
+      <c r="B128" t="str">
+        <v>197010252008011009</v>
+      </c>
+      <c r="C128" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D128" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v xml:space="preserve"> INDRIJATI TAKARINI S.H.,M.M.</v>
+      </c>
+      <c r="B129" t="str">
+        <v>196511251986032012</v>
+      </c>
+      <c r="C129" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D129" t="str">
+        <v>UNOR_NONAKTIF</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v xml:space="preserve"> MADIA TARIGAN  </v>
+      </c>
+      <c r="B130" t="str">
+        <v>197812252008011006</v>
+      </c>
+      <c r="C130" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D130" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v xml:space="preserve"> ACHMAD FADHIL HENDRIYAWAN A.Md,</v>
+      </c>
+      <c r="B131" t="str">
+        <v>199712252020121004</v>
+      </c>
+      <c r="C131" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v xml:space="preserve"> ENDANG WINARSIH S.Sos.,M.Si.</v>
+      </c>
+      <c r="B132" t="str">
+        <v>197009261997032006</v>
+      </c>
+      <c r="C132" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D132" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v xml:space="preserve"> SUPRIYADI </v>
+      </c>
+      <c r="B133" t="str">
+        <v>198509262010011002</v>
+      </c>
+      <c r="C133" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D133" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v xml:space="preserve"> SUPRIYANTO </v>
+      </c>
+      <c r="B134" t="str">
+        <v>198509262010011003</v>
+      </c>
+      <c r="C134" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D134" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v xml:space="preserve"> WINDY SAGITHA S.Kom</v>
+      </c>
+      <c r="B135" t="str">
+        <v>198411262011011006</v>
+      </c>
+      <c r="C135" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D135" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v xml:space="preserve"> TRIA DINA PRATIWI S.H.</v>
+      </c>
+      <c r="B136" t="str">
+        <v>199111262019032017</v>
+      </c>
+      <c r="C136" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT</v>
+      </c>
+      <c r="D136" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Dr. Ir. WAHID WAHYUDI MT</v>
+      </c>
+      <c r="B137" t="str">
+        <v>196301271989031005</v>
+      </c>
+      <c r="C137" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D137" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Drs. DIDIEK DWIYANTO M.M.</v>
+      </c>
+      <c r="B138" t="str">
+        <v>196401271986031008</v>
+      </c>
+      <c r="C138" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v xml:space="preserve"> ILHAM WIJAYA KURNIAWAN S S.STP</v>
+      </c>
+      <c r="B139" t="str">
+        <v>199601272018081002</v>
+      </c>
+      <c r="C139" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
+      </c>
+      <c r="D139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Dr. RAMLIYANTO S.P., M.P.</v>
+      </c>
+      <c r="B140" t="str">
+        <v>197102271999031005</v>
+      </c>
+      <c r="C140" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA</v>
+      </c>
+      <c r="D140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v xml:space="preserve"> TITIS PRASETYO </v>
+      </c>
+      <c r="B141" t="str">
+        <v>196803272007011011</v>
+      </c>
+      <c r="C141" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v xml:space="preserve"> RR DIYAH KARTIKA SE., M.Si</v>
+      </c>
+      <c r="B142" t="str">
+        <v>197703272001122002</v>
+      </c>
+      <c r="C142" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - UPT SERTIFIKASI KOMPETENSI SUMBER DAYA MANUSIA - SUB BAGIAN TATA USAHA</v>
+      </c>
+      <c r="D142" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v xml:space="preserve"> RATNA DIYANTI KINILOW S.STP</v>
+      </c>
+      <c r="B143" t="str">
+        <v>199304272015072001</v>
+      </c>
+      <c r="C143" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D143" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v xml:space="preserve"> SUPARJADI </v>
+      </c>
+      <c r="B144" t="str">
+        <v>197109272007011006</v>
+      </c>
+      <c r="C144" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D144" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v xml:space="preserve"> SUMADI S.E.</v>
+      </c>
+      <c r="B145" t="str">
+        <v>197309272009011002</v>
+      </c>
+      <c r="C145" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D145" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Drs. ANUNG WIDJAJA M.Si</v>
+      </c>
+      <c r="B146" t="str">
+        <v>196512271986021009</v>
+      </c>
+      <c r="C146" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D146" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v xml:space="preserve"> DAVID SINGGIH PERMADI S.STP</v>
+      </c>
+      <c r="B147" t="str">
+        <v>199304282017081001</v>
+      </c>
+      <c r="C147" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS</v>
+      </c>
+      <c r="D147" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v xml:space="preserve"> PRIMA UTAMA WARDOYO PUTRO S.E.,M.M.</v>
+      </c>
+      <c r="B148" t="str">
+        <v>199007282022041001</v>
+      </c>
+      <c r="C148" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D148" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v xml:space="preserve"> HARTIK S.E</v>
+      </c>
+      <c r="B149" t="str">
+        <v>197610282009012002</v>
+      </c>
+      <c r="C149" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D149" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v xml:space="preserve"> MOCH. BASORI S.H.,S.S.,M.H.</v>
+      </c>
+      <c r="B150" t="str">
+        <v>196911281989101001</v>
+      </c>
+      <c r="C150" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI TEKNIS - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D150" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v xml:space="preserve"> RATNASARI S.STP</v>
+      </c>
+      <c r="B151" t="str">
+        <v>199412282016092002</v>
+      </c>
+      <c r="C151" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D151" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v xml:space="preserve"> RUDY SILABAN S.E.</v>
+      </c>
+      <c r="B152" t="str">
+        <v>197204291994031003</v>
+      </c>
+      <c r="C152" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v xml:space="preserve"> SETYARI WIDIATIRAHAYU S.P., M.M.</v>
+      </c>
+      <c r="B153" t="str">
+        <v>197008291997032004</v>
+      </c>
+      <c r="C153" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D153" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v xml:space="preserve"> AHMAD FATHONI S.Sos.</v>
+      </c>
+      <c r="B154" t="str">
+        <v>196811291999011001</v>
+      </c>
+      <c r="C154" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL</v>
+      </c>
+      <c r="D154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v xml:space="preserve"> SUGENG MUKTIONO S.Sos.,M.Si.</v>
+      </c>
+      <c r="B155" t="str">
+        <v>196812291989031004</v>
+      </c>
+      <c r="C155" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI FUNGSIONAL DAN SOSIAL KULTURAL - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v xml:space="preserve"> GATUT MURDIJANTO S.H.</v>
+      </c>
+      <c r="B156" t="str">
+        <v>196706301997031007</v>
+      </c>
+      <c r="C156" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN KOMPETENSI DASAR DAN MANAJERIAL - SUB KOORDINATOR DAN KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v xml:space="preserve"> NINDHIRA RASTRAESTHI A.Md. A.Pkt.</v>
+      </c>
+      <c r="B157" t="str">
+        <v>199706302020122015</v>
+      </c>
+      <c r="C157" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v xml:space="preserve"> REZA SUFI AL KAMIL S.T</v>
+      </c>
+      <c r="B158" t="str">
+        <v>199508302019032019</v>
+      </c>
+      <c r="C158" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - BIDANG PENGEMBANGAN PENGAJARAN KOMPETENSI</v>
+      </c>
+      <c r="D158" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v xml:space="preserve"> TANTI YUPITA KRISTIANTI S.E.</v>
+      </c>
+      <c r="B159" t="str">
+        <v>197610302009012002</v>
+      </c>
+      <c r="C159" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN UMUM DAN KEPEGAWAIAN</v>
+      </c>
+      <c r="D159" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v xml:space="preserve"> BERTYANDHA AYUWASKITHA S.Pi., MBA.</v>
+      </c>
+      <c r="B160" t="str">
+        <v>199112302020122018</v>
+      </c>
+      <c r="C160" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - KELOMPOK JABATAN FUNGSIONAL</v>
+      </c>
+      <c r="D160" t="str">
+        <v>FORMASI_JF_BELUMDIANGKAT</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v xml:space="preserve"> WISMANYO DREMO S.E.</v>
+      </c>
+      <c r="B161" t="str">
+        <v>197101312009011002</v>
+      </c>
+      <c r="C161" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - UPT SERTIFIKASI KOMPETENSI SUMBER DAYA MANUSIA - SEKSI PENYELENGGARAAN KOMPETENSI SDM</v>
+      </c>
+      <c r="D161" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v xml:space="preserve"> AGUS DARMAWAN S.Sos.</v>
+      </c>
+      <c r="B162" t="str">
+        <v>197408311996021001</v>
+      </c>
+      <c r="C162" t="str">
+        <v>BADAN PENGEMBANGAN SUMBER DAYA MANUSIA - SEKRETARIAT - SUB BAGIAN KEUANGAN</v>
+      </c>
+      <c r="D162" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D162"/>
   </ignoredErrors>
 </worksheet>
 </file>